--- a/src/main/webapp/resources/Plantilla.xlsx
+++ b/src/main/webapp/resources/Plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bosca\Pictures\JavaWebAplication\src\main\webapp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E028BA5-60DF-4F12-9EAB-B5F466E85DF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8742B8-17B9-4939-82BE-5646A351DAB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Semestre</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Valoracion Apoyo Especial (Facultad)</t>
   </si>
   <si>
-    <t>Numero de apoyos otorgados</t>
-  </si>
-  <si>
     <t>PERDIDA DE ASIGNATURA</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>recurso</t>
-  </si>
-  <si>
-    <t>PuntajeGlobal_saber11</t>
   </si>
   <si>
     <t>Desertor</t>
@@ -1144,18 +1138,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT50"/>
+  <dimension ref="A1:AR50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1288,14 +1283,8 @@
       <c r="AR1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1340,10 +1329,8 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1388,10 +1375,8 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1436,10 +1421,8 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1484,10 +1467,8 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1532,10 +1513,8 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1580,10 +1559,8 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1628,10 +1605,8 @@
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1676,10 +1651,8 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1724,10 +1697,8 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1772,10 +1743,8 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1820,10 +1789,8 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1868,10 +1835,8 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1916,10 +1881,8 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1964,10 +1927,8 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2012,10 +1973,8 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2060,10 +2019,8 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2108,10 +2065,8 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2156,10 +2111,8 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2204,10 +2157,8 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2252,10 +2203,8 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2300,10 +2249,8 @@
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2348,10 +2295,8 @@
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2396,10 +2341,8 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2444,10 +2387,8 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2492,10 +2433,8 @@
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2540,10 +2479,8 @@
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2588,10 +2525,8 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2636,10 +2571,8 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
-    </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2684,10 +2617,8 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2732,10 +2663,8 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2780,10 +2709,8 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-    </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2828,10 +2755,8 @@
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-    </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2876,10 +2801,8 @@
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-    </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2924,10 +2847,8 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-    </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2972,10 +2893,8 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-    </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3020,10 +2939,8 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-    </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3068,10 +2985,8 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-    </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3116,10 +3031,8 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-    </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3164,10 +3077,8 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-    </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3212,10 +3123,8 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-    </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3260,10 +3169,8 @@
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3308,10 +3215,8 @@
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3356,10 +3261,8 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3404,10 +3307,8 @@
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3452,10 +3353,8 @@
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-    </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3500,10 +3399,8 @@
       <c r="AP47" s="1"/>
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-    </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3548,10 +3445,8 @@
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-    </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3596,10 +3491,8 @@
       <c r="AP49" s="1"/>
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-    </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3644,109 +3537,83 @@
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Hoja1!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A50 AM2</xm:sqref>
+          <xm:sqref>AL2:AL50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Hoja1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B50 AL2</xm:sqref>
+          <xm:sqref>AK2:AK50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Hoja1!$H$2:$H$101</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G50 C3:C50 AK2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Hoja1!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>Hoja1!$F$2:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>Hoja1!$C$2:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F50</xm:sqref>
+          <xm:sqref>AJ2:AJ50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Hoja1!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:G2 AT3:AT50 AH3:AH50 AI3:AI50 AJ3:AJ50 AK3:AK50 AL3:AL50 AM3:AM50 AN3:AN50 AO3:AO50 AP3:AP50 AQ2:AQ50 AR3:AR50 AS3:AS50 H2:AE50 AG2:AG50 AF3:AF50</xm:sqref>
+          <xm:sqref>A2:AF50 AP2:AP50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19300884-5E61-449B-BD6E-3199E1D80BBF}">
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AH2</xm:sqref>
+          <xm:sqref>AG2:AG50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA1BC37A-9E81-48D6-AE2A-6A05B6F3F4B5}">
           <x14:formula1>
             <xm:f>Hoja1!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AI2</xm:sqref>
+          <xm:sqref>AH2:AH50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F3D7AFD-2BDD-4ED2-9477-8CACF206A111}">
           <x14:formula1>
             <xm:f>Hoja1!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ2</xm:sqref>
+          <xm:sqref>AI2:AI50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D231087-76B6-4648-8364-E97938FA107B}">
           <x14:formula1>
             <xm:f>Hoja1!$J$2:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AN2</xm:sqref>
+          <xm:sqref>AM2:AM50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3E03631-D4DA-4FF1-A774-2A456A5DEE5B}">
           <x14:formula1>
             <xm:f>Hoja1!$H$2:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AO2</xm:sqref>
+          <xm:sqref>AN2:AN50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1B8BF22E-F94F-4221-89A8-73B18F3A27A8}">
           <x14:formula1>
             <xm:f>Hoja1!$E$2:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AP2 AF2</xm:sqref>
+          <xm:sqref>AO2:AO50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E0F590E-7DFF-4914-A844-FEDAFE565410}">
           <x14:formula1>
             <xm:f>Hoja1!$K$2:$K$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AR2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0A309D5-4F43-4CBC-AE65-FE9B563492A1}">
-          <x14:formula1>
-            <xm:f>Hoja1!$H$2:$H$501</xm:f>
-          </x14:formula1>
-          <xm:sqref>AS2</xm:sqref>
+          <xm:sqref>AQ2:AQ50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDDF2427-ABC0-4CFF-843D-02E87A17D6D5}">
           <x14:formula1>
             <xm:f>Hoja1!$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AT2</xm:sqref>
+          <xm:sqref>AR2:AR50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3790,13 +3657,13 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3804,10 +3671,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3825,13 +3692,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
         <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3839,10 +3706,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3860,21 +3727,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
         <v>77</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3886,18 +3753,18 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3909,15 +3776,15 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -3929,12 +3796,12 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -3946,12 +3813,12 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -3960,12 +3827,12 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3974,12 +3841,12 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3988,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3999,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
